--- a/app/controllers/admin/excel/divisionBatches/sampleForImportDivisionBatches.xlsx
+++ b/app/controllers/admin/excel/divisionBatches/sampleForImportDivisionBatches.xlsx
@@ -11,7 +11,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+  <si>
+    <t>courseName</t>
+  </si>
   <si>
     <t>courseId</t>
   </si>
@@ -78,19 +81,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView showGridLines="1" workbookViewId="0" rightToLeft="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="15" customWidth="1"/>
-    <col min="2" max="2" width="10" customWidth="1"/>
+    <col min="2" max="2" width="15" customWidth="1"/>
     <col min="3" max="3" width="10" customWidth="1"/>
     <col min="4" max="4" width="10" customWidth="1"/>
+    <col min="5" max="5" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -103,6 +107,9 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
